--- a/brasil/figures/spark_1.xlsx
+++ b/brasil/figures/spark_1.xlsx
@@ -20,9 +20,6 @@
     <t>season</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -30,6 +27,9 @@
   </si>
   <si>
     <t>perc</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>EPSPs</t>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -152,9 +152,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -387,13 +384,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -405,17 +402,17 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>15.0</v>
+        <v>228794.0</v>
       </c>
       <c r="D2" s="1">
-        <v>228794.0</v>
+        <f t="shared" ref="D2:D67" si="1">C2*1000</f>
+        <v>228794000</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E67" si="1">D2*1000</f>
-        <v>228794000</v>
+        <v>40.8</v>
       </c>
       <c r="F2" s="1">
-        <v>40.8</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="3">
@@ -426,17 +423,17 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>15.0</v>
+        <v>228794.0</v>
       </c>
       <c r="D3" s="1">
-        <v>228794.0</v>
+        <f t="shared" si="1"/>
+        <v>228794000</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="1"/>
-        <v>228794000</v>
+        <v>13.2</v>
       </c>
       <c r="F3" s="1">
-        <v>13.2</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="4">
@@ -447,17 +444,17 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>15.0</v>
+        <v>228794.0</v>
       </c>
       <c r="D4" s="1">
-        <v>228794.0</v>
+        <f t="shared" si="1"/>
+        <v>228794000</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>228794000</v>
+        <v>7.4</v>
       </c>
       <c r="F4" s="1">
-        <v>7.4</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="5">
@@ -468,17 +465,17 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>15.0</v>
+        <v>228794.0</v>
       </c>
       <c r="D5" s="1">
-        <v>228794.0</v>
+        <f t="shared" si="1"/>
+        <v>228794000</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>228794000</v>
+        <v>12.4</v>
       </c>
       <c r="F5" s="1">
-        <v>12.4</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="6">
@@ -489,17 +486,17 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>15.0</v>
+        <v>228794.0</v>
       </c>
       <c r="D6" s="1">
-        <v>228794.0</v>
+        <f t="shared" si="1"/>
+        <v>228794000</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>228794000</v>
+        <v>3.4</v>
       </c>
       <c r="F6" s="1">
-        <v>3.4</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,17 +507,17 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>15.0</v>
+        <v>228794.0</v>
       </c>
       <c r="D7" s="1">
-        <v>228794.0</v>
+        <f t="shared" si="1"/>
+        <v>228794000</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>228794000</v>
+        <v>10.5</v>
       </c>
       <c r="F7" s="1">
-        <v>10.5</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="8">
@@ -531,17 +528,17 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>15.0</v>
+        <v>228794.0</v>
       </c>
       <c r="D8" s="1">
-        <v>228794.0</v>
+        <f t="shared" si="1"/>
+        <v>228794000</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>228794000</v>
+        <v>4.5</v>
       </c>
       <c r="F8" s="1">
-        <v>4.5</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="9">
@@ -552,17 +549,17 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>15.0</v>
+        <v>228794.0</v>
       </c>
       <c r="D9" s="1">
-        <v>228794.0</v>
+        <f t="shared" si="1"/>
+        <v>228794000</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>228794000</v>
+        <v>2.0</v>
       </c>
       <c r="F9" s="1">
-        <v>2.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="10">
@@ -573,17 +570,17 @@
         <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>15.0</v>
+        <v>228794.0</v>
       </c>
       <c r="D10" s="1">
-        <v>228794.0</v>
+        <f t="shared" si="1"/>
+        <v>228794000</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>228794000</v>
+        <v>2.8</v>
       </c>
       <c r="F10" s="1">
-        <v>2.8</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="11">
@@ -594,17 +591,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>15.0</v>
+        <v>228794.0</v>
       </c>
       <c r="D11" s="1">
-        <v>228794.0</v>
+        <f t="shared" si="1"/>
+        <v>228794000</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>228794000</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="1">
-        <v>0.5</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="12">
@@ -615,17 +612,17 @@
         <v>7</v>
       </c>
       <c r="C12" s="1">
-        <v>15.0</v>
+        <v>228794.0</v>
       </c>
       <c r="D12" s="1">
-        <v>228794.0</v>
+        <f t="shared" si="1"/>
+        <v>228794000</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>228794000</v>
+        <v>2.1</v>
       </c>
       <c r="F12" s="1">
-        <v>2.1</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="13">
@@ -636,17 +633,17 @@
         <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>16.0</v>
+        <v>257969.0</v>
       </c>
       <c r="D13" s="1">
-        <v>257969.0</v>
+        <f t="shared" si="1"/>
+        <v>257969000</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>257969000</v>
+        <v>39.8</v>
       </c>
       <c r="F13" s="1">
-        <v>39.8</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="14">
@@ -657,17 +654,17 @@
         <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>16.0</v>
+        <v>257969.0</v>
       </c>
       <c r="D14" s="1">
-        <v>257969.0</v>
+        <f t="shared" si="1"/>
+        <v>257969000</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>257969000</v>
+        <v>12.1</v>
       </c>
       <c r="F14" s="1">
-        <v>12.1</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="15">
@@ -678,17 +675,17 @@
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>16.0</v>
+        <v>257969.0</v>
       </c>
       <c r="D15" s="1">
-        <v>257969.0</v>
+        <f t="shared" si="1"/>
+        <v>257969000</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>257969000</v>
+        <v>8.6</v>
       </c>
       <c r="F15" s="1">
-        <v>8.6</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="16">
@@ -699,17 +696,17 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>16.0</v>
+        <v>257969.0</v>
       </c>
       <c r="D16" s="1">
-        <v>257969.0</v>
+        <f t="shared" si="1"/>
+        <v>257969000</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>257969000</v>
+        <v>13.4</v>
       </c>
       <c r="F16" s="1">
-        <v>13.4</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="17">
@@ -720,17 +717,17 @@
         <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>16.0</v>
+        <v>257969.0</v>
       </c>
       <c r="D17" s="1">
-        <v>257969.0</v>
+        <f t="shared" si="1"/>
+        <v>257969000</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>257969000</v>
+        <v>4.9</v>
       </c>
       <c r="F17" s="1">
-        <v>4.9</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="18">
@@ -741,17 +738,17 @@
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>16.0</v>
+        <v>257969.0</v>
       </c>
       <c r="D18" s="1">
-        <v>257969.0</v>
+        <f t="shared" si="1"/>
+        <v>257969000</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>257969000</v>
+        <v>9.8</v>
       </c>
       <c r="F18" s="1">
-        <v>9.8</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="19">
@@ -762,17 +759,17 @@
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>16.0</v>
+        <v>257969.0</v>
       </c>
       <c r="D19" s="1">
-        <v>257969.0</v>
+        <f t="shared" si="1"/>
+        <v>257969000</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>257969000</v>
+        <v>4.6</v>
       </c>
       <c r="F19" s="1">
-        <v>4.6</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="20">
@@ -783,17 +780,17 @@
         <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>16.0</v>
+        <v>257969.0</v>
       </c>
       <c r="D20" s="1">
-        <v>257969.0</v>
+        <f t="shared" si="1"/>
+        <v>257969000</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>257969000</v>
+        <v>1.6</v>
       </c>
       <c r="F20" s="1">
-        <v>1.6</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="21">
@@ -804,17 +801,17 @@
         <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>16.0</v>
+        <v>257969.0</v>
       </c>
       <c r="D21" s="1">
-        <v>257969.0</v>
+        <f t="shared" si="1"/>
+        <v>257969000</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>257969000</v>
+        <v>2.9</v>
       </c>
       <c r="F21" s="1">
-        <v>2.9</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="22">
@@ -825,17 +822,17 @@
         <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>16.0</v>
+        <v>257969.0</v>
       </c>
       <c r="D22" s="1">
-        <v>257969.0</v>
+        <f t="shared" si="1"/>
+        <v>257969000</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>257969000</v>
+        <v>0.6</v>
       </c>
       <c r="F22" s="1">
-        <v>0.6</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="23">
@@ -846,17 +843,17 @@
         <v>17</v>
       </c>
       <c r="C23" s="1">
-        <v>16.0</v>
+        <v>257969.0</v>
       </c>
       <c r="D23" s="1">
-        <v>257969.0</v>
+        <f t="shared" si="1"/>
+        <v>257969000</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>257969000</v>
+        <v>1.7</v>
       </c>
       <c r="F23" s="1">
-        <v>1.7</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="24">
@@ -867,17 +864,17 @@
         <v>19</v>
       </c>
       <c r="C24" s="1">
-        <v>17.0</v>
+        <v>269085.0</v>
       </c>
       <c r="D24" s="1">
-        <v>269085.0</v>
+        <f t="shared" si="1"/>
+        <v>269085000</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>269085000</v>
+        <v>38.6</v>
       </c>
       <c r="F24" s="1">
-        <v>38.6</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="25">
@@ -888,17 +885,17 @@
         <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>17.0</v>
+        <v>269085.0</v>
       </c>
       <c r="D25" s="1">
-        <v>269085.0</v>
+        <f t="shared" si="1"/>
+        <v>269085000</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>269085000</v>
+        <v>12.0</v>
       </c>
       <c r="F25" s="1">
-        <v>12.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="26">
@@ -909,17 +906,17 @@
         <v>19</v>
       </c>
       <c r="C26" s="1">
-        <v>17.0</v>
+        <v>269085.0</v>
       </c>
       <c r="D26" s="1">
-        <v>269085.0</v>
+        <f t="shared" si="1"/>
+        <v>269085000</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>269085000</v>
+        <v>9.2</v>
       </c>
       <c r="F26" s="1">
-        <v>9.2</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="27">
@@ -930,17 +927,17 @@
         <v>19</v>
       </c>
       <c r="C27" s="1">
-        <v>17.0</v>
+        <v>269085.0</v>
       </c>
       <c r="D27" s="1">
-        <v>269085.0</v>
+        <f t="shared" si="1"/>
+        <v>269085000</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>269085000</v>
+        <v>12.6</v>
       </c>
       <c r="F27" s="1">
-        <v>12.6</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="28">
@@ -951,17 +948,17 @@
         <v>19</v>
       </c>
       <c r="C28" s="1">
-        <v>17.0</v>
+        <v>269085.0</v>
       </c>
       <c r="D28" s="1">
-        <v>269085.0</v>
+        <f t="shared" si="1"/>
+        <v>269085000</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>269085000</v>
+        <v>7.5</v>
       </c>
       <c r="F28" s="1">
-        <v>7.5</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="29">
@@ -972,17 +969,17 @@
         <v>19</v>
       </c>
       <c r="C29" s="1">
-        <v>17.0</v>
+        <v>269085.0</v>
       </c>
       <c r="D29" s="1">
-        <v>269085.0</v>
+        <f t="shared" si="1"/>
+        <v>269085000</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
-        <v>269085000</v>
+        <v>8.9</v>
       </c>
       <c r="F29" s="1">
-        <v>8.9</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="30">
@@ -993,17 +990,17 @@
         <v>19</v>
       </c>
       <c r="C30" s="1">
-        <v>17.0</v>
+        <v>269085.0</v>
       </c>
       <c r="D30" s="1">
-        <v>269085.0</v>
+        <f t="shared" si="1"/>
+        <v>269085000</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
-        <v>269085000</v>
+        <v>4.1</v>
       </c>
       <c r="F30" s="1">
-        <v>4.1</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="31">
@@ -1014,17 +1011,17 @@
         <v>19</v>
       </c>
       <c r="C31" s="1">
-        <v>17.0</v>
+        <v>269085.0</v>
       </c>
       <c r="D31" s="1">
-        <v>269085.0</v>
+        <f t="shared" si="1"/>
+        <v>269085000</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
-        <v>269085000</v>
+        <v>1.8</v>
       </c>
       <c r="F31" s="1">
-        <v>1.8</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="32">
@@ -1035,17 +1032,17 @@
         <v>19</v>
       </c>
       <c r="C32" s="1">
-        <v>17.0</v>
+        <v>269085.0</v>
       </c>
       <c r="D32" s="1">
-        <v>269085.0</v>
+        <f t="shared" si="1"/>
+        <v>269085000</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
-        <v>269085000</v>
+        <v>2.6</v>
       </c>
       <c r="F32" s="1">
-        <v>2.6</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="33">
@@ -1056,17 +1053,17 @@
         <v>19</v>
       </c>
       <c r="C33" s="1">
-        <v>17.0</v>
+        <v>269085.0</v>
       </c>
       <c r="D33" s="1">
-        <v>269085.0</v>
+        <f t="shared" si="1"/>
+        <v>269085000</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
-        <v>269085000</v>
+        <v>0.8</v>
       </c>
       <c r="F33" s="1">
-        <v>0.8</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="34">
@@ -1077,17 +1074,17 @@
         <v>19</v>
       </c>
       <c r="C34" s="1">
-        <v>17.0</v>
+        <v>269085.0</v>
       </c>
       <c r="D34" s="1">
-        <v>269085.0</v>
+        <f t="shared" si="1"/>
+        <v>269085000</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
-        <v>269085000</v>
+        <v>1.8</v>
       </c>
       <c r="F34" s="1">
-        <v>1.8</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="35">
@@ -1098,17 +1095,17 @@
         <v>20</v>
       </c>
       <c r="C35" s="1">
-        <v>18.0</v>
+        <v>276473.0</v>
       </c>
       <c r="D35" s="1">
-        <v>276473.0</v>
+        <f t="shared" si="1"/>
+        <v>276473000</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>276473000</v>
+        <v>36.8</v>
       </c>
       <c r="F35" s="1">
-        <v>36.8</v>
+        <v>2018.0</v>
       </c>
     </row>
     <row r="36">
@@ -1119,17 +1116,17 @@
         <v>20</v>
       </c>
       <c r="C36" s="1">
-        <v>18.0</v>
+        <v>276473.0</v>
       </c>
       <c r="D36" s="1">
-        <v>276473.0</v>
+        <f t="shared" si="1"/>
+        <v>276473000</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>276473000</v>
+        <v>11.5</v>
       </c>
       <c r="F36" s="1">
-        <v>11.5</v>
+        <v>2018.0</v>
       </c>
     </row>
     <row r="37">
@@ -1140,17 +1137,17 @@
         <v>20</v>
       </c>
       <c r="C37" s="1">
-        <v>18.0</v>
+        <v>276473.0</v>
       </c>
       <c r="D37" s="1">
-        <v>276473.0</v>
+        <f t="shared" si="1"/>
+        <v>276473000</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>276473000</v>
+        <v>9.8</v>
       </c>
       <c r="F37" s="1">
-        <v>9.8</v>
+        <v>2018.0</v>
       </c>
     </row>
     <row r="38">
@@ -1161,17 +1158,17 @@
         <v>20</v>
       </c>
       <c r="C38" s="1">
-        <v>18.0</v>
+        <v>276473.0</v>
       </c>
       <c r="D38" s="1">
-        <v>276473.0</v>
+        <f t="shared" si="1"/>
+        <v>276473000</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
-        <v>276473000</v>
+        <v>12.5</v>
       </c>
       <c r="F38" s="1">
-        <v>12.5</v>
+        <v>2018.0</v>
       </c>
     </row>
     <row r="39">
@@ -1182,17 +1179,17 @@
         <v>20</v>
       </c>
       <c r="C39" s="1">
-        <v>18.0</v>
+        <v>276473.0</v>
       </c>
       <c r="D39" s="1">
-        <v>276473.0</v>
+        <f t="shared" si="1"/>
+        <v>276473000</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="1"/>
-        <v>276473000</v>
+        <v>8.8</v>
       </c>
       <c r="F39" s="1">
-        <v>8.8</v>
+        <v>2018.0</v>
       </c>
     </row>
     <row r="40">
@@ -1202,18 +1199,18 @@
       <c r="B40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="3">
-        <v>18.0</v>
+      <c r="C40" s="1">
+        <v>276473.0</v>
       </c>
       <c r="D40" s="1">
-        <v>276473.0</v>
+        <f t="shared" si="1"/>
+        <v>276473000</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="1"/>
-        <v>276473000</v>
+        <v>8.8</v>
       </c>
       <c r="F40" s="1">
-        <v>8.8</v>
+        <v>2018.0</v>
       </c>
     </row>
     <row r="41">
@@ -1223,18 +1220,18 @@
       <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="3">
-        <v>18.0</v>
+      <c r="C41" s="1">
+        <v>276473.0</v>
       </c>
       <c r="D41" s="1">
-        <v>276473.0</v>
+        <f t="shared" si="1"/>
+        <v>276473000</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="1"/>
-        <v>276473000</v>
+        <v>4.6</v>
       </c>
       <c r="F41" s="1">
-        <v>4.6</v>
+        <v>2018.0</v>
       </c>
     </row>
     <row r="42">
@@ -1244,18 +1241,18 @@
       <c r="B42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="3">
-        <v>18.0</v>
+      <c r="C42" s="1">
+        <v>276473.0</v>
       </c>
       <c r="D42" s="1">
-        <v>276473.0</v>
+        <f t="shared" si="1"/>
+        <v>276473000</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="1"/>
-        <v>276473000</v>
+        <v>1.8</v>
       </c>
       <c r="F42" s="1">
-        <v>1.8</v>
+        <v>2018.0</v>
       </c>
     </row>
     <row r="43">
@@ -1265,18 +1262,18 @@
       <c r="B43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="3">
-        <v>18.0</v>
+      <c r="C43" s="1">
+        <v>276473.0</v>
       </c>
       <c r="D43" s="1">
-        <v>276473.0</v>
+        <f t="shared" si="1"/>
+        <v>276473000</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="1"/>
-        <v>276473000</v>
+        <v>2.1</v>
       </c>
       <c r="F43" s="1">
-        <v>2.1</v>
+        <v>2018.0</v>
       </c>
     </row>
     <row r="44">
@@ -1286,18 +1283,18 @@
       <c r="B44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="3">
-        <v>18.0</v>
+      <c r="C44" s="1">
+        <v>276473.0</v>
       </c>
       <c r="D44" s="1">
-        <v>276473.0</v>
+        <f t="shared" si="1"/>
+        <v>276473000</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="1"/>
-        <v>276473000</v>
+        <v>0.9</v>
       </c>
       <c r="F44" s="1">
-        <v>0.9</v>
+        <v>2018.0</v>
       </c>
     </row>
     <row r="45">
@@ -1307,18 +1304,18 @@
       <c r="B45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="3">
-        <v>18.0</v>
+      <c r="C45" s="1">
+        <v>276473.0</v>
       </c>
       <c r="D45" s="1">
-        <v>276473.0</v>
+        <f t="shared" si="1"/>
+        <v>276473000</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="1"/>
-        <v>276473000</v>
+        <v>2.3</v>
       </c>
       <c r="F45" s="1">
-        <v>2.3</v>
+        <v>2018.0</v>
       </c>
     </row>
     <row r="46">
@@ -1329,17 +1326,17 @@
         <v>21</v>
       </c>
       <c r="C46" s="1">
-        <v>19.0</v>
+        <v>285949.0</v>
       </c>
       <c r="D46" s="1">
-        <v>285949.0</v>
+        <f t="shared" si="1"/>
+        <v>285949000</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="1"/>
-        <v>285949000</v>
+        <v>37.3</v>
       </c>
       <c r="F46" s="1">
-        <v>37.3</v>
+        <v>2019.0</v>
       </c>
     </row>
     <row r="47">
@@ -1350,17 +1347,17 @@
         <v>21</v>
       </c>
       <c r="C47" s="1">
-        <v>19.0</v>
+        <v>285949.0</v>
       </c>
       <c r="D47" s="1">
-        <v>285949.0</v>
+        <f t="shared" si="1"/>
+        <v>285949000</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="1"/>
-        <v>285949000</v>
+        <v>11.1</v>
       </c>
       <c r="F47" s="1">
-        <v>11.1</v>
+        <v>2019.0</v>
       </c>
     </row>
     <row r="48">
@@ -1371,17 +1368,17 @@
         <v>21</v>
       </c>
       <c r="C48" s="1">
-        <v>19.0</v>
+        <v>285949.0</v>
       </c>
       <c r="D48" s="1">
-        <v>285949.0</v>
+        <f t="shared" si="1"/>
+        <v>285949000</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="1"/>
-        <v>285949000</v>
+        <v>9.7</v>
       </c>
       <c r="F48" s="1">
-        <v>9.7</v>
+        <v>2019.0</v>
       </c>
     </row>
     <row r="49">
@@ -1392,17 +1389,17 @@
         <v>21</v>
       </c>
       <c r="C49" s="1">
-        <v>19.0</v>
+        <v>285949.0</v>
       </c>
       <c r="D49" s="1">
-        <v>285949.0</v>
+        <f t="shared" si="1"/>
+        <v>285949000</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="1"/>
-        <v>285949000</v>
+        <v>14.1</v>
       </c>
       <c r="F49" s="1">
-        <v>14.1</v>
+        <v>2019.0</v>
       </c>
     </row>
     <row r="50">
@@ -1413,17 +1410,17 @@
         <v>21</v>
       </c>
       <c r="C50" s="1">
-        <v>19.0</v>
+        <v>285949.0</v>
       </c>
       <c r="D50" s="1">
-        <v>285949.0</v>
+        <f t="shared" si="1"/>
+        <v>285949000</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="1"/>
-        <v>285949000</v>
+        <v>8.8</v>
       </c>
       <c r="F50" s="1">
-        <v>8.8</v>
+        <v>2019.0</v>
       </c>
     </row>
     <row r="51">
@@ -1434,17 +1431,17 @@
         <v>21</v>
       </c>
       <c r="C51" s="1">
-        <v>19.0</v>
+        <v>285949.0</v>
       </c>
       <c r="D51" s="1">
-        <v>285949.0</v>
+        <f t="shared" si="1"/>
+        <v>285949000</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="1"/>
-        <v>285949000</v>
+        <v>7.4</v>
       </c>
       <c r="F51" s="1">
-        <v>7.4</v>
+        <v>2019.0</v>
       </c>
     </row>
     <row r="52">
@@ -1455,17 +1452,17 @@
         <v>21</v>
       </c>
       <c r="C52" s="1">
-        <v>19.0</v>
+        <v>285949.0</v>
       </c>
       <c r="D52" s="1">
-        <v>285949.0</v>
+        <f t="shared" si="1"/>
+        <v>285949000</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="1"/>
-        <v>285949000</v>
+        <v>4.2</v>
       </c>
       <c r="F52" s="1">
-        <v>4.2</v>
+        <v>2019.0</v>
       </c>
     </row>
     <row r="53">
@@ -1476,17 +1473,17 @@
         <v>21</v>
       </c>
       <c r="C53" s="1">
-        <v>19.0</v>
+        <v>285949.0</v>
       </c>
       <c r="D53" s="1">
-        <v>285949.0</v>
+        <f t="shared" si="1"/>
+        <v>285949000</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="1"/>
-        <v>285949000</v>
+        <v>2.0</v>
       </c>
       <c r="F53" s="1">
-        <v>2.0</v>
+        <v>2019.0</v>
       </c>
     </row>
     <row r="54">
@@ -1497,17 +1494,17 @@
         <v>21</v>
       </c>
       <c r="C54" s="1">
-        <v>19.0</v>
+        <v>285949.0</v>
       </c>
       <c r="D54" s="1">
-        <v>285949.0</v>
+        <f t="shared" si="1"/>
+        <v>285949000</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="1"/>
-        <v>285949000</v>
+        <v>1.8</v>
       </c>
       <c r="F54" s="1">
-        <v>1.8</v>
+        <v>2019.0</v>
       </c>
     </row>
     <row r="55">
@@ -1518,17 +1515,17 @@
         <v>21</v>
       </c>
       <c r="C55" s="1">
-        <v>19.0</v>
+        <v>285949.0</v>
       </c>
       <c r="D55" s="1">
-        <v>285949.0</v>
+        <f t="shared" si="1"/>
+        <v>285949000</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="1"/>
-        <v>285949000</v>
+        <v>1.2</v>
       </c>
       <c r="F55" s="1">
-        <v>1.2</v>
+        <v>2019.0</v>
       </c>
     </row>
     <row r="56">
@@ -1539,17 +1536,17 @@
         <v>21</v>
       </c>
       <c r="C56" s="1">
-        <v>19.0</v>
+        <v>285949.0</v>
       </c>
       <c r="D56" s="1">
-        <v>285949.0</v>
+        <f t="shared" si="1"/>
+        <v>285949000</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="1"/>
-        <v>285949000</v>
+        <v>2.5</v>
       </c>
       <c r="F56" s="1">
-        <v>2.5</v>
+        <v>2019.0</v>
       </c>
     </row>
     <row r="57">
@@ -1560,17 +1557,17 @@
         <v>22</v>
       </c>
       <c r="C57" s="1">
-        <v>20.0</v>
+        <v>307680.0</v>
       </c>
       <c r="D57" s="1">
-        <v>307680.0</v>
+        <f t="shared" si="1"/>
+        <v>307680000</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="1"/>
-        <v>307680000</v>
+        <v>35.7</v>
       </c>
       <c r="F57" s="1">
-        <v>35.7</v>
+        <v>2020.0</v>
       </c>
     </row>
     <row r="58">
@@ -1581,17 +1578,17 @@
         <v>22</v>
       </c>
       <c r="C58" s="1">
-        <v>20.0</v>
+        <v>307680.0</v>
       </c>
       <c r="D58" s="1">
-        <v>307680.0</v>
+        <f t="shared" si="1"/>
+        <v>307680000</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="1"/>
-        <v>307680000</v>
+        <v>10.7</v>
       </c>
       <c r="F58" s="1">
-        <v>10.7</v>
+        <v>2020.0</v>
       </c>
     </row>
     <row r="59">
@@ -1602,17 +1599,17 @@
         <v>22</v>
       </c>
       <c r="C59" s="1">
-        <v>20.0</v>
+        <v>307680.0</v>
       </c>
       <c r="D59" s="1">
-        <v>307680.0</v>
+        <f t="shared" si="1"/>
+        <v>307680000</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="1"/>
-        <v>307680000</v>
+        <v>9.9</v>
       </c>
       <c r="F59" s="1">
-        <v>9.9</v>
+        <v>2020.0</v>
       </c>
     </row>
     <row r="60">
@@ -1623,17 +1620,17 @@
         <v>22</v>
       </c>
       <c r="C60" s="1">
-        <v>20.0</v>
+        <v>307680.0</v>
       </c>
       <c r="D60" s="1">
-        <v>307680.0</v>
+        <f t="shared" si="1"/>
+        <v>307680000</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="1"/>
-        <v>307680000</v>
+        <v>14.7</v>
       </c>
       <c r="F60" s="1">
-        <v>14.7</v>
+        <v>2020.0</v>
       </c>
     </row>
     <row r="61">
@@ -1644,17 +1641,17 @@
         <v>22</v>
       </c>
       <c r="C61" s="1">
-        <v>20.0</v>
+        <v>307680.0</v>
       </c>
       <c r="D61" s="1">
-        <v>307680.0</v>
+        <f t="shared" si="1"/>
+        <v>307680000</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="1"/>
-        <v>307680000</v>
+        <v>10.1</v>
       </c>
       <c r="F61" s="1">
-        <v>10.1</v>
+        <v>2020.0</v>
       </c>
     </row>
     <row r="62">
@@ -1665,17 +1662,17 @@
         <v>22</v>
       </c>
       <c r="C62" s="1">
-        <v>20.0</v>
+        <v>307680.0</v>
       </c>
       <c r="D62" s="1">
-        <v>307680.0</v>
+        <f t="shared" si="1"/>
+        <v>307680000</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="1"/>
-        <v>307680000</v>
+        <v>7.3</v>
       </c>
       <c r="F62" s="1">
-        <v>7.3</v>
+        <v>2020.0</v>
       </c>
     </row>
     <row r="63">
@@ -1686,17 +1683,17 @@
         <v>22</v>
       </c>
       <c r="C63" s="1">
-        <v>20.0</v>
+        <v>307680.0</v>
       </c>
       <c r="D63" s="1">
-        <v>307680.0</v>
+        <f t="shared" si="1"/>
+        <v>307680000</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="1"/>
-        <v>307680000</v>
+        <v>4.7</v>
       </c>
       <c r="F63" s="1">
-        <v>4.7</v>
+        <v>2020.0</v>
       </c>
     </row>
     <row r="64">
@@ -1707,17 +1704,17 @@
         <v>22</v>
       </c>
       <c r="C64" s="1">
-        <v>20.0</v>
+        <v>307680.0</v>
       </c>
       <c r="D64" s="1">
-        <v>307680.0</v>
+        <f t="shared" si="1"/>
+        <v>307680000</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="1"/>
-        <v>307680000</v>
+        <v>1.7</v>
       </c>
       <c r="F64" s="1">
-        <v>1.7</v>
+        <v>2020.0</v>
       </c>
     </row>
     <row r="65">
@@ -1728,17 +1725,17 @@
         <v>22</v>
       </c>
       <c r="C65" s="1">
-        <v>20.0</v>
+        <v>307680.0</v>
       </c>
       <c r="D65" s="1">
-        <v>307680.0</v>
+        <f t="shared" si="1"/>
+        <v>307680000</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="1"/>
-        <v>307680000</v>
+        <v>1.4</v>
       </c>
       <c r="F65" s="1">
-        <v>1.4</v>
+        <v>2020.0</v>
       </c>
     </row>
     <row r="66">
@@ -1749,17 +1746,17 @@
         <v>22</v>
       </c>
       <c r="C66" s="1">
-        <v>20.0</v>
+        <v>307680.0</v>
       </c>
       <c r="D66" s="1">
-        <v>307680.0</v>
+        <f t="shared" si="1"/>
+        <v>307680000</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="1"/>
-        <v>307680000</v>
+        <v>1.0</v>
       </c>
       <c r="F66" s="1">
-        <v>1.0</v>
+        <v>2020.0</v>
       </c>
     </row>
     <row r="67">
@@ -1770,17 +1767,17 @@
         <v>22</v>
       </c>
       <c r="C67" s="1">
-        <v>20.0</v>
+        <v>307680.0</v>
       </c>
       <c r="D67" s="1">
-        <v>307680.0</v>
+        <f t="shared" si="1"/>
+        <v>307680000</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="1"/>
-        <v>307680000</v>
+        <v>2.9</v>
       </c>
       <c r="F67" s="1">
-        <v>2.9</v>
+        <v>2020.0</v>
       </c>
     </row>
   </sheetData>
@@ -1809,16 +1806,16 @@
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -1837,7 +1834,7 @@
       <c r="E2" s="1">
         <v>276473.0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <f t="shared" ref="F2:F109" si="1">E2*1000</f>
         <v>276473000</v>
       </c>
@@ -1861,7 +1858,7 @@
       <c r="E3" s="1">
         <v>285949.0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
@@ -1885,7 +1882,7 @@
       <c r="E4" s="1">
         <v>307680.0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
@@ -1909,7 +1906,7 @@
       <c r="E5" s="1">
         <v>276473.0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
@@ -1933,7 +1930,7 @@
       <c r="E6" s="1">
         <v>285949.0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
@@ -1957,7 +1954,7 @@
       <c r="E7" s="1">
         <v>307680.0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
@@ -1981,7 +1978,7 @@
       <c r="E8" s="1">
         <v>276473.0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
@@ -2005,7 +2002,7 @@
       <c r="E9" s="1">
         <v>285949.0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
@@ -2029,7 +2026,7 @@
       <c r="E10" s="1">
         <v>307680.0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
@@ -2053,7 +2050,7 @@
       <c r="E11" s="1">
         <v>276473.0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
@@ -2077,7 +2074,7 @@
       <c r="E12" s="1">
         <v>285949.0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
@@ -2101,7 +2098,7 @@
       <c r="E13" s="1">
         <v>307680.0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
@@ -2125,7 +2122,7 @@
       <c r="E14" s="1">
         <v>276473.0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
@@ -2149,7 +2146,7 @@
       <c r="E15" s="1">
         <v>285949.0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
@@ -2173,7 +2170,7 @@
       <c r="E16" s="1">
         <v>307680.0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
@@ -2197,7 +2194,7 @@
       <c r="E17" s="1">
         <v>276473.0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
@@ -2221,7 +2218,7 @@
       <c r="E18" s="1">
         <v>285949.0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
@@ -2245,7 +2242,7 @@
       <c r="E19" s="1">
         <v>307680.0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
@@ -2269,7 +2266,7 @@
       <c r="E20" s="1">
         <v>276473.0</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
@@ -2293,7 +2290,7 @@
       <c r="E21" s="1">
         <v>285949.0</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
@@ -2317,7 +2314,7 @@
       <c r="E22" s="1">
         <v>307680.0</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
@@ -2341,7 +2338,7 @@
       <c r="E23" s="2">
         <v>276473.0</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
@@ -2365,7 +2362,7 @@
       <c r="E24" s="2">
         <v>285949.0</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
@@ -2389,7 +2386,7 @@
       <c r="E25" s="2">
         <v>307680.0</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
@@ -2413,7 +2410,7 @@
       <c r="E26" s="2">
         <v>36253.0</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2437,7 +2434,7 @@
       <c r="E27" s="2">
         <v>38687.0</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2461,7 +2458,7 @@
       <c r="E28" s="2">
         <v>40997.0</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2473,7 +2470,7 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2485,7 +2482,7 @@
       <c r="E29" s="2">
         <v>36253.0</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2497,7 +2494,7 @@
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2509,7 +2506,7 @@
       <c r="E30" s="2">
         <v>38687.0</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2521,7 +2518,7 @@
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2533,7 +2530,7 @@
       <c r="E31" s="2">
         <v>40997.0</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2557,7 +2554,7 @@
       <c r="E32" s="2">
         <v>36253.0</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2581,7 +2578,7 @@
       <c r="E33" s="2">
         <v>38687.0</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2605,7 +2602,7 @@
       <c r="E34" s="2">
         <v>40997.0</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2629,7 +2626,7 @@
       <c r="E35" s="2">
         <v>36253.0</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2653,7 +2650,7 @@
       <c r="E36" s="2">
         <v>38687.0</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2677,7 +2674,7 @@
       <c r="E37" s="2">
         <v>40997.0</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2701,7 +2698,7 @@
       <c r="E38" s="2">
         <v>36253.0</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2725,7 +2722,7 @@
       <c r="E39" s="2">
         <v>38687.0</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2749,7 +2746,7 @@
       <c r="E40" s="2">
         <v>40997.0</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2761,7 +2758,7 @@
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2773,7 +2770,7 @@
       <c r="E41" s="2">
         <v>36253.0</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2785,7 +2782,7 @@
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2797,7 +2794,7 @@
       <c r="E42" s="2">
         <v>38687.0</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2809,7 +2806,7 @@
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2821,7 +2818,7 @@
       <c r="E43" s="2">
         <v>40997.0</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2845,7 +2842,7 @@
       <c r="E44" s="2">
         <v>36253.0</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2869,7 +2866,7 @@
       <c r="E45" s="2">
         <v>38687.0</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2893,7 +2890,7 @@
       <c r="E46" s="2">
         <v>40997.0</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2917,7 +2914,7 @@
       <c r="E47" s="2">
         <v>36253.0</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2941,7 +2938,7 @@
       <c r="E48" s="2">
         <v>38687.0</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2965,7 +2962,7 @@
       <c r="E49" s="2">
         <v>40997.0</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2974,7 +2971,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2989,7 +2986,7 @@
       <c r="E50" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -2998,7 +2995,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3013,7 +3010,7 @@
       <c r="E51" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="3">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3022,7 +3019,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3037,7 +3034,7 @@
       <c r="E52" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3046,10 +3043,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -3061,7 +3058,7 @@
       <c r="E53" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3070,10 +3067,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -3085,7 +3082,7 @@
       <c r="E54" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="3">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3094,10 +3091,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -3109,7 +3106,7 @@
       <c r="E55" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="3">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3118,10 +3115,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -3133,7 +3130,7 @@
       <c r="E56" s="2">
         <v>28554.0</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="3">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3142,10 +3139,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -3157,7 +3154,7 @@
       <c r="E57" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="3">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3166,10 +3163,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -3181,7 +3178,7 @@
       <c r="E58" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="3">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3190,10 +3187,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -3205,7 +3202,7 @@
       <c r="E59" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="3">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3214,10 +3211,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -3229,7 +3226,7 @@
       <c r="E60" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="3">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3238,10 +3235,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -3253,7 +3250,7 @@
       <c r="E61" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="3">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3262,10 +3259,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3277,7 +3274,7 @@
       <c r="E62" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="3">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3286,10 +3283,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -3301,7 +3298,7 @@
       <c r="E63" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="3">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3310,10 +3307,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -3325,7 +3322,7 @@
       <c r="E64" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="3">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3334,10 +3331,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -3349,7 +3346,7 @@
       <c r="E65" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="3">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3358,10 +3355,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -3373,7 +3370,7 @@
       <c r="E66" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="3">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3382,10 +3379,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -3397,7 +3394,7 @@
       <c r="E67" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="3">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3406,10 +3403,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -3421,7 +3418,7 @@
       <c r="E68" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="3">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3430,10 +3427,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3445,7 +3442,7 @@
       <c r="E69" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="3">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3454,10 +3451,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -3469,7 +3466,7 @@
       <c r="E70" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="3">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3493,7 +3490,7 @@
       <c r="E71" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="3">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3517,7 +3514,7 @@
       <c r="E72" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="3">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3541,7 +3538,7 @@
       <c r="E73" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="3">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3565,7 +3562,7 @@
       <c r="E74" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="3">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3589,7 +3586,7 @@
       <c r="E75" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="3">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3613,7 +3610,7 @@
       <c r="E76" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="3">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3622,7 +3619,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -3637,7 +3634,7 @@
       <c r="E77" s="2">
         <v>15905.0</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="3">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
@@ -3646,7 +3643,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -3661,7 +3658,7 @@
       <c r="E78" s="2">
         <v>20718.0</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="3">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
@@ -3670,7 +3667,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -3685,7 +3682,7 @@
       <c r="E79" s="2">
         <v>23733.0</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="3">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
@@ -3694,7 +3691,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -3709,7 +3706,7 @@
       <c r="E80" s="1">
         <v>15905.0</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="3">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
@@ -3718,7 +3715,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -3733,7 +3730,7 @@
       <c r="E81" s="1">
         <v>20718.0</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="3">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
@@ -3742,7 +3739,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3757,7 +3754,7 @@
       <c r="E82" s="1">
         <v>23733.0</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="3">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
@@ -3766,7 +3763,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -3781,7 +3778,7 @@
       <c r="E83" s="1">
         <v>15905.0</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="3">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
@@ -3790,7 +3787,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -3805,7 +3802,7 @@
       <c r="E84" s="1">
         <v>20718.0</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="3">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
@@ -3814,7 +3811,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3829,7 +3826,7 @@
       <c r="E85" s="1">
         <v>23733.0</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="3">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
@@ -3838,7 +3835,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -3853,7 +3850,7 @@
       <c r="E86" s="1">
         <v>15905.0</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="3">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
@@ -3862,7 +3859,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -3877,7 +3874,7 @@
       <c r="E87" s="1">
         <v>20718.0</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="3">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
@@ -3886,7 +3883,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -3901,7 +3898,7 @@
       <c r="E88" s="1">
         <v>23733.0</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="3">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
@@ -3910,10 +3907,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -3922,19 +3919,22 @@
       <c r="D89" s="1">
         <v>22.0</v>
       </c>
-      <c r="F89" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E89" s="1">
+        <v>15905.0</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" si="1"/>
+        <v>15905000</v>
       </c>
       <c r="G89" s="1">
         <v>2018.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -3943,19 +3943,22 @@
       <c r="D90" s="1">
         <v>24.0</v>
       </c>
-      <c r="F90" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E90" s="1">
+        <v>20718.0</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" si="1"/>
+        <v>20718000</v>
       </c>
       <c r="G90" s="1">
         <v>2019.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -3964,16 +3967,19 @@
       <c r="D91" s="1">
         <v>29.0</v>
       </c>
-      <c r="F91" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E91" s="1">
+        <v>23733.0</v>
+      </c>
+      <c r="F91" s="3">
+        <f t="shared" si="1"/>
+        <v>23733000</v>
       </c>
       <c r="G91" s="1">
         <v>2020.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -3985,16 +3991,19 @@
       <c r="D92" s="1">
         <v>20.0</v>
       </c>
-      <c r="F92" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E92" s="1">
+        <v>15905.0</v>
+      </c>
+      <c r="F92" s="3">
+        <f t="shared" si="1"/>
+        <v>15905000</v>
       </c>
       <c r="G92" s="1">
         <v>2018.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -4006,16 +4015,19 @@
       <c r="D93" s="1">
         <v>20.0</v>
       </c>
-      <c r="F93" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E93" s="1">
+        <v>20718.0</v>
+      </c>
+      <c r="F93" s="3">
+        <f t="shared" si="1"/>
+        <v>20718000</v>
       </c>
       <c r="G93" s="1">
         <v>2019.0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -4027,19 +4039,22 @@
       <c r="D94" s="1">
         <v>19.0</v>
       </c>
-      <c r="F94" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E94" s="1">
+        <v>23733.0</v>
+      </c>
+      <c r="F94" s="3">
+        <f t="shared" si="1"/>
+        <v>23733000</v>
       </c>
       <c r="G94" s="1">
         <v>2020.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -4048,19 +4063,22 @@
       <c r="D95" s="1">
         <v>12.0</v>
       </c>
-      <c r="F95" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E95" s="1">
+        <v>15905.0</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" si="1"/>
+        <v>15905000</v>
       </c>
       <c r="G95" s="1">
         <v>2018.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -4069,19 +4087,22 @@
       <c r="D96" s="1">
         <v>14.0</v>
       </c>
-      <c r="F96" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E96" s="1">
+        <v>20718.0</v>
+      </c>
+      <c r="F96" s="3">
+        <f t="shared" si="1"/>
+        <v>20718000</v>
       </c>
       <c r="G96" s="1">
         <v>2019.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -4090,19 +4111,22 @@
       <c r="D97" s="1">
         <v>13.0</v>
       </c>
-      <c r="F97" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E97" s="1">
+        <v>23733.0</v>
+      </c>
+      <c r="F97" s="3">
+        <f t="shared" si="1"/>
+        <v>23733000</v>
       </c>
       <c r="G97" s="1">
         <v>2020.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -4111,19 +4135,22 @@
       <c r="D98" s="1">
         <v>12.0</v>
       </c>
-      <c r="F98" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E98" s="1">
+        <v>15905.0</v>
+      </c>
+      <c r="F98" s="3">
+        <f t="shared" si="1"/>
+        <v>15905000</v>
       </c>
       <c r="G98" s="1">
         <v>2018.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -4132,19 +4159,22 @@
       <c r="D99" s="1">
         <v>13.0</v>
       </c>
-      <c r="F99" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E99" s="1">
+        <v>20718.0</v>
+      </c>
+      <c r="F99" s="3">
+        <f t="shared" si="1"/>
+        <v>20718000</v>
       </c>
       <c r="G99" s="1">
         <v>2019.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -4153,16 +4183,19 @@
       <c r="D100" s="1">
         <v>9.0</v>
       </c>
-      <c r="F100" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E100" s="1">
+        <v>23733.0</v>
+      </c>
+      <c r="F100" s="3">
+        <f t="shared" si="1"/>
+        <v>23733000</v>
       </c>
       <c r="G100" s="1">
         <v>2020.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -4174,16 +4207,19 @@
       <c r="D101" s="1">
         <v>9.0</v>
       </c>
-      <c r="F101" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E101" s="1">
+        <v>15905.0</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" si="1"/>
+        <v>15905000</v>
       </c>
       <c r="G101" s="1">
         <v>2018.0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -4195,16 +4231,19 @@
       <c r="D102" s="1">
         <v>8.0</v>
       </c>
-      <c r="F102" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E102" s="1">
+        <v>20718.0</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" si="1"/>
+        <v>20718000</v>
       </c>
       <c r="G102" s="1">
         <v>2019.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -4216,16 +4255,19 @@
       <c r="D103" s="1">
         <v>9.0</v>
       </c>
-      <c r="F103" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E103" s="1">
+        <v>23733.0</v>
+      </c>
+      <c r="F103" s="3">
+        <f t="shared" si="1"/>
+        <v>23733000</v>
       </c>
       <c r="G103" s="1">
         <v>2020.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -4237,16 +4279,19 @@
       <c r="D104" s="1">
         <v>8.0</v>
       </c>
-      <c r="F104" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E104" s="1">
+        <v>15905.0</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" si="1"/>
+        <v>15905000</v>
       </c>
       <c r="G104" s="1">
         <v>2018.0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -4258,16 +4303,19 @@
       <c r="D105" s="1">
         <v>8.0</v>
       </c>
-      <c r="F105" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E105" s="1">
+        <v>20718.0</v>
+      </c>
+      <c r="F105" s="3">
+        <f t="shared" si="1"/>
+        <v>20718000</v>
       </c>
       <c r="G105" s="1">
         <v>2019.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -4279,9 +4327,12 @@
       <c r="D106" s="1">
         <v>8.0</v>
       </c>
-      <c r="F106" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E106" s="1">
+        <v>23733.0</v>
+      </c>
+      <c r="F106" s="3">
+        <f t="shared" si="1"/>
+        <v>23733000</v>
       </c>
       <c r="G106" s="1">
         <v>2020.0</v>
@@ -4300,9 +4351,12 @@
       <c r="D107" s="1">
         <v>7.0</v>
       </c>
-      <c r="F107" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E107" s="1">
+        <v>15905.0</v>
+      </c>
+      <c r="F107" s="3">
+        <f t="shared" si="1"/>
+        <v>15905000</v>
       </c>
       <c r="G107" s="1">
         <v>2018.0</v>
@@ -4321,9 +4375,12 @@
       <c r="D108" s="1">
         <v>5.0</v>
       </c>
-      <c r="F108" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E108" s="1">
+        <v>20718.0</v>
+      </c>
+      <c r="F108" s="3">
+        <f t="shared" si="1"/>
+        <v>20718000</v>
       </c>
       <c r="G108" s="1">
         <v>2019.0</v>
@@ -4342,9 +4399,12 @@
       <c r="D109" s="1">
         <v>6.0</v>
       </c>
-      <c r="F109" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E109" s="1">
+        <v>23733.0</v>
+      </c>
+      <c r="F109" s="3">
+        <f t="shared" si="1"/>
+        <v>23733000</v>
       </c>
       <c r="G109" s="1">
         <v>2020.0</v>

--- a/brasil/figures/spark_1.xlsx
+++ b/brasil/figures/spark_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="33">
   <si>
     <t>herbicide</t>
   </si>
@@ -150,10 +150,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -384,13 +384,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1834,8 +1834,8 @@
       <c r="E2" s="1">
         <v>276473.0</v>
       </c>
-      <c r="F2" s="3">
-        <f t="shared" ref="F2:F109" si="1">E2*1000</f>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F106" si="1">E2*1000</f>
         <v>276473000</v>
       </c>
       <c r="G2" s="1">
@@ -1858,11 +1858,11 @@
       <c r="E3" s="1">
         <v>285949.0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>2019.0</v>
       </c>
     </row>
@@ -1882,11 +1882,11 @@
       <c r="E4" s="1">
         <v>307680.0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>2020.0</v>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       <c r="E5" s="1">
         <v>276473.0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="E6" s="1">
         <v>285949.0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="E7" s="1">
         <v>307680.0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="E8" s="1">
         <v>276473.0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="E9" s="1">
         <v>285949.0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="E10" s="1">
         <v>307680.0</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="E11" s="1">
         <v>276473.0</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="E12" s="1">
         <v>285949.0</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="E13" s="1">
         <v>307680.0</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="E14" s="1">
         <v>276473.0</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
@@ -2146,7 +2146,7 @@
       <c r="E15" s="1">
         <v>285949.0</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="E16" s="1">
         <v>307680.0</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="E17" s="1">
         <v>276473.0</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="E18" s="1">
         <v>285949.0</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="E19" s="1">
         <v>307680.0</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="E20" s="1">
         <v>276473.0</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
@@ -2290,7 +2290,7 @@
       <c r="E21" s="1">
         <v>285949.0</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
@@ -2314,7 +2314,7 @@
       <c r="E22" s="1">
         <v>307680.0</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
@@ -2335,10 +2335,10 @@
       <c r="D23" s="1">
         <v>1.0</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>276473.0</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
@@ -2359,10 +2359,10 @@
       <c r="D24" s="1">
         <v>2.0</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>285949.0</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
@@ -2383,10 +2383,10 @@
       <c r="D25" s="1">
         <v>2.0</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>307680.0</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
@@ -2407,10 +2407,10 @@
       <c r="D26" s="1">
         <v>45.0</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>36253.0</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2431,10 +2431,10 @@
       <c r="D27" s="1">
         <v>45.0</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>38687.0</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2455,10 +2455,10 @@
       <c r="D28" s="1">
         <v>47.0</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>40997.0</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2479,10 +2479,10 @@
       <c r="D29" s="1">
         <v>35.0</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>36253.0</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2503,10 +2503,10 @@
       <c r="D30" s="1">
         <v>37.0</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>38687.0</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2527,10 +2527,10 @@
       <c r="D31" s="1">
         <v>37.0</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>40997.0</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2551,10 +2551,10 @@
       <c r="D32" s="1">
         <v>8.0</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>36253.0</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2575,10 +2575,10 @@
       <c r="D33" s="1">
         <v>7.0</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>38687.0</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2599,10 +2599,10 @@
       <c r="D34" s="1">
         <v>6.0</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>40997.0</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2623,10 +2623,10 @@
       <c r="D35" s="1">
         <v>4.0</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>36253.0</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2647,10 +2647,10 @@
       <c r="D36" s="1">
         <v>3.0</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>38687.0</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2671,10 +2671,10 @@
       <c r="D37" s="1">
         <v>3.0</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>40997.0</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2695,10 +2695,10 @@
       <c r="D38" s="1">
         <v>5.0</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>36253.0</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2719,10 +2719,10 @@
       <c r="D39" s="1">
         <v>4.0</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>38687.0</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2743,10 +2743,10 @@
       <c r="D40" s="1">
         <v>2.0</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>40997.0</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2767,10 +2767,10 @@
       <c r="D41" s="1">
         <v>1.0</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>36253.0</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2791,10 +2791,10 @@
       <c r="D42" s="1">
         <v>2.0</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>38687.0</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2815,10 +2815,10 @@
       <c r="D43" s="1">
         <v>2.0</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>40997.0</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2830,8 +2830,8 @@
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>8</v>
+      <c r="B44" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>20</v>
@@ -2839,10 +2839,10 @@
       <c r="D44" s="1">
         <v>1.0</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>36253.0</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2854,8 +2854,8 @@
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>8</v>
+      <c r="B45" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>21</v>
@@ -2863,10 +2863,10 @@
       <c r="D45" s="1">
         <v>1.0</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>38687.0</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2878,8 +2878,8 @@
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>8</v>
+      <c r="B46" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>22</v>
@@ -2887,10 +2887,10 @@
       <c r="D46" s="1">
         <v>1.0</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>40997.0</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2911,10 +2911,10 @@
       <c r="D47" s="1">
         <v>1.0</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>36253.0</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
@@ -2935,10 +2935,10 @@
       <c r="D48" s="1">
         <v>1.0</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>38687.0</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
@@ -2959,10 +2959,10 @@
       <c r="D49" s="1">
         <v>2.0</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>40997.0</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
@@ -2986,7 +2986,7 @@
       <c r="E50" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="E51" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3034,7 +3034,7 @@
       <c r="E52" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="E53" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="E54" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3106,7 +3106,7 @@
       <c r="E55" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3127,10 +3127,10 @@
       <c r="D56" s="1">
         <v>13.0</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3154,7 +3154,7 @@
       <c r="E57" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="E58" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3202,7 +3202,7 @@
       <c r="E59" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="E60" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3250,7 +3250,7 @@
       <c r="E61" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="E62" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3298,7 +3298,7 @@
       <c r="E63" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="E64" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3346,7 +3346,7 @@
       <c r="E65" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="2">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="E66" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="2">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="E67" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="2">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="E68" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="2">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="E69" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3466,7 +3466,7 @@
       <c r="E70" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="2">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3478,8 +3478,8 @@
       <c r="A71" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>11</v>
+      <c r="B71" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>20</v>
@@ -3490,7 +3490,7 @@
       <c r="E71" s="1">
         <v>28554.0</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="2">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
@@ -3502,8 +3502,8 @@
       <c r="A72" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>11</v>
+      <c r="B72" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>21</v>
@@ -3514,7 +3514,7 @@
       <c r="E72" s="1">
         <v>26635.0</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="2">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
@@ -3526,8 +3526,8 @@
       <c r="A73" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>11</v>
+      <c r="B73" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>22</v>
@@ -3538,7 +3538,7 @@
       <c r="E73" s="1">
         <v>27460.0</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="2">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
@@ -3548,23 +3548,23 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="1">
-        <v>10.0</v>
+        <v>91.0</v>
       </c>
       <c r="E74" s="1">
-        <v>28554.0</v>
-      </c>
-      <c r="F74" s="3">
-        <f t="shared" si="1"/>
-        <v>28554000</v>
+        <v>15905.0</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="1"/>
+        <v>15905000</v>
       </c>
       <c r="G74" s="1">
         <v>2018.0</v>
@@ -3572,23 +3572,23 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="1">
-        <v>11.0</v>
+        <v>92.0</v>
       </c>
       <c r="E75" s="1">
-        <v>26635.0</v>
-      </c>
-      <c r="F75" s="3">
-        <f t="shared" si="1"/>
-        <v>26635000</v>
+        <v>20718.0</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="1"/>
+        <v>20718000</v>
       </c>
       <c r="G75" s="1">
         <v>2019.0</v>
@@ -3596,23 +3596,23 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="1">
-        <v>13.0</v>
+        <v>93.0</v>
       </c>
       <c r="E76" s="1">
-        <v>27460.0</v>
-      </c>
-      <c r="F76" s="3">
-        <f t="shared" si="1"/>
-        <v>27460000</v>
+        <v>23733.0</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="1"/>
+        <v>23733000</v>
       </c>
       <c r="G76" s="1">
         <v>2020.0</v>
@@ -3623,18 +3623,18 @@
         <v>30</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="1">
-        <v>91.0</v>
-      </c>
-      <c r="E77" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E77" s="1">
         <v>15905.0</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="2">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
@@ -3647,18 +3647,18 @@
         <v>30</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="1">
-        <v>92.0</v>
-      </c>
-      <c r="E78" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E78" s="1">
         <v>20718.0</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="2">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
@@ -3671,18 +3671,18 @@
         <v>30</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="E79" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E79" s="1">
         <v>23733.0</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="2">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
@@ -3695,18 +3695,18 @@
         <v>30</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E80" s="1">
         <v>15905.0</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
@@ -3719,18 +3719,18 @@
         <v>30</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D81" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E81" s="1">
         <v>20718.0</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="2">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
@@ -3743,18 +3743,18 @@
         <v>30</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D82" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E82" s="1">
         <v>23733.0</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="2">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
@@ -3767,18 +3767,18 @@
         <v>30</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D83" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E83" s="1">
         <v>15905.0</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="2">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
@@ -3791,18 +3791,18 @@
         <v>30</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E84" s="1">
         <v>20718.0</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="2">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
@@ -3815,18 +3815,18 @@
         <v>30</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E85" s="1">
         <v>23733.0</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="2">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
@@ -3836,21 +3836,21 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D86" s="1">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="E86" s="1">
         <v>15905.0</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="2">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
@@ -3860,21 +3860,21 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D87" s="1">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="E87" s="1">
         <v>20718.0</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="2">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
@@ -3884,21 +3884,21 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="1">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="E88" s="1">
         <v>23733.0</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="2">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
@@ -3911,18 +3911,18 @@
         <v>31</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="1">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="E89" s="1">
         <v>15905.0</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="2">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
@@ -3935,18 +3935,18 @@
         <v>31</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="1">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="E90" s="1">
         <v>20718.0</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="2">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
@@ -3959,18 +3959,18 @@
         <v>31</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D91" s="1">
-        <v>29.0</v>
+        <v>19.0</v>
       </c>
       <c r="E91" s="1">
         <v>23733.0</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="2">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
@@ -3983,18 +3983,18 @@
         <v>31</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D92" s="1">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="E92" s="1">
         <v>15905.0</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="2">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
@@ -4007,18 +4007,18 @@
         <v>31</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D93" s="1">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="E93" s="1">
         <v>20718.0</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="2">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
@@ -4031,18 +4031,18 @@
         <v>31</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="1">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="E94" s="1">
         <v>23733.0</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="2">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>31</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>20</v>
@@ -4066,7 +4066,7 @@
       <c r="E95" s="1">
         <v>15905.0</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="2">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
@@ -4079,18 +4079,18 @@
         <v>31</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D96" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="E96" s="1">
         <v>20718.0</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="2">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
@@ -4103,18 +4103,18 @@
         <v>31</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="1">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="E97" s="1">
         <v>23733.0</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="2">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
@@ -4127,18 +4127,18 @@
         <v>31</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D98" s="1">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="E98" s="1">
         <v>15905.0</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="2">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
@@ -4151,18 +4151,18 @@
         <v>31</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="1">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="E99" s="1">
         <v>20718.0</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="2">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>31</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>22</v>
@@ -4186,7 +4186,7 @@
       <c r="E100" s="1">
         <v>23733.0</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="2">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
@@ -4199,18 +4199,18 @@
         <v>31</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D101" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="E101" s="1">
         <v>15905.0</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="2">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>31</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>21</v>
@@ -4234,7 +4234,7 @@
       <c r="E102" s="1">
         <v>20718.0</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="2">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
@@ -4247,18 +4247,18 @@
         <v>31</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D103" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="E103" s="1">
         <v>23733.0</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="2">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
@@ -4271,18 +4271,18 @@
         <v>31</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E104" s="1">
         <v>15905.0</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="2">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
@@ -4295,18 +4295,18 @@
         <v>31</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D105" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="E105" s="1">
         <v>20718.0</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="2">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
@@ -4319,94 +4319,22 @@
         <v>31</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="1">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E106" s="1">
         <v>23733.0</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="2">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
       <c r="G106" s="1">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="E107" s="1">
-        <v>15905.0</v>
-      </c>
-      <c r="F107" s="3">
-        <f t="shared" si="1"/>
-        <v>15905000</v>
-      </c>
-      <c r="G107" s="1">
-        <v>2018.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="E108" s="1">
-        <v>20718.0</v>
-      </c>
-      <c r="F108" s="3">
-        <f t="shared" si="1"/>
-        <v>20718000</v>
-      </c>
-      <c r="G108" s="1">
-        <v>2019.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D109" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="E109" s="1">
-        <v>23733.0</v>
-      </c>
-      <c r="F109" s="3">
-        <f t="shared" si="1"/>
-        <v>23733000</v>
-      </c>
-      <c r="G109" s="1">
         <v>2020.0</v>
       </c>
     </row>

--- a/brasil/figures/spark_1.xlsx
+++ b/brasil/figures/spark_1.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="spark_1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="spark_2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="spark_3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="36">
   <si>
     <t>herbicide</t>
   </si>
@@ -112,6 +113,15 @@
   <si>
     <t>Divisao celular</t>
   </si>
+  <si>
+    <t>pat</t>
+  </si>
+  <si>
+    <t>pasture</t>
+  </si>
+  <si>
+    <t>Other crops</t>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -154,6 +164,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -167,6 +178,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -4341,4 +4356,360 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4">
+        <f t="shared" ref="C2:C19" si="1">E2*D2</f>
+        <v>154824.88</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.56</v>
+      </c>
+      <c r="E2" s="1">
+        <v>276473.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" si="1"/>
+        <v>157271.95</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.55</v>
+      </c>
+      <c r="E3" s="1">
+        <v>285949.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="1"/>
+        <v>172300.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.56</v>
+      </c>
+      <c r="E4" s="1">
+        <v>307680.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="1"/>
+        <v>35941.49</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>276473.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="1"/>
+        <v>40032.86</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>285949.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="1"/>
+        <v>39998.4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="E7" s="1">
+        <v>307680.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>27647.3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>276473.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="1"/>
+        <v>25735.41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E9" s="1">
+        <v>285949.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="1"/>
+        <v>27691.2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E10" s="1">
+        <v>307680.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="1"/>
+        <v>16588.38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="1">
+        <v>276473.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="1"/>
+        <v>20016.43</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="E12" s="1">
+        <v>285949.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="1"/>
+        <v>24614.4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E13" s="1">
+        <v>307680.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="1"/>
+        <v>11058.92</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E14" s="1">
+        <v>276473.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="1"/>
+        <v>14297.45</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="1">
+        <v>285949.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="1"/>
+        <v>15384</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="1">
+        <v>307680.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>27647.3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>276473.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="1"/>
+        <v>28594.9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>285949.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="1"/>
+        <v>30768</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>307680.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/brasil/figures/spark_1.xlsx
+++ b/brasil/figures/spark_1.xlsx
@@ -5,15 +5,19 @@
   <sheets>
     <sheet state="visible" name="spark_1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="spark_2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="spark_3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjuV66VDEt54gDdOqcD1rYeNSMe0Q=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="37">
   <si>
     <t>herbicide</t>
   </si>
@@ -93,6 +97,18 @@
     <t>year_season</t>
   </si>
   <si>
+    <t>perc_soa</t>
+  </si>
+  <si>
+    <t>total_season</t>
+  </si>
+  <si>
+    <t>perc_crop</t>
+  </si>
+  <si>
+    <t>total_ha_season</t>
+  </si>
+  <si>
     <t>soybean</t>
   </si>
   <si>
@@ -113,21 +129,12 @@
   <si>
     <t>Divisao celular</t>
   </si>
-  <si>
-    <t>pat</t>
-  </si>
-  <si>
-    <t>pasture</t>
-  </si>
-  <si>
-    <t>Other crops</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -137,7 +144,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,18 +159,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -178,10 +180,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -387,9 +385,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -430,7 +431,7 @@
         <v>2015.0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -451,7 +452,7 @@
         <v>2015.0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -472,7 +473,7 @@
         <v>2015.0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -493,7 +494,7 @@
         <v>2015.0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -514,7 +515,7 @@
         <v>2015.0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -535,7 +536,7 @@
         <v>2015.0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -556,7 +557,7 @@
         <v>2015.0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -577,7 +578,7 @@
         <v>2015.0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -598,7 +599,7 @@
         <v>2015.0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -619,7 +620,7 @@
         <v>2015.0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -640,7 +641,7 @@
         <v>2015.0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -661,7 +662,7 @@
         <v>2016.0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -682,7 +683,7 @@
         <v>2016.0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -703,7 +704,7 @@
         <v>2016.0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -724,7 +725,7 @@
         <v>2016.0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -745,7 +746,7 @@
         <v>2016.0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -766,7 +767,7 @@
         <v>2016.0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -787,7 +788,7 @@
         <v>2016.0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -808,7 +809,7 @@
         <v>2016.0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -829,7 +830,7 @@
         <v>2016.0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -850,7 +851,7 @@
         <v>2016.0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -871,7 +872,7 @@
         <v>2016.0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -892,7 +893,7 @@
         <v>2017.0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -913,7 +914,7 @@
         <v>2017.0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -934,7 +935,7 @@
         <v>2017.0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -955,7 +956,7 @@
         <v>2017.0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -976,7 +977,7 @@
         <v>2017.0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -997,7 +998,7 @@
         <v>2017.0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>2017.0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>2017.0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>2017.0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>2017.0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>2017.0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>2018.0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>2018.0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>2018.0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>2018.0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>2018.0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
@@ -1228,7 +1229,7 @@
         <v>2018.0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>2018.0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>2018.0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>2018.0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>2018.0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>2018.0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>2019.0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>2019.0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>2019.0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>2019.0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>2019.0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>2019.0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>2019.0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>2019.0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>14</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>2019.0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>15</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>2019.0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>2019.0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>2020.0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -1606,7 +1607,7 @@
         <v>2020.0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>2020.0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -1648,7 +1649,7 @@
         <v>2020.0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>2020.0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>2020.0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>2020.0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>2020.0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>2020.0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>15</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>2020.0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
@@ -1795,6 +1796,939 @@
         <v>2020.0</v>
       </c>
     </row>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1808,9 +2742,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="14.43"/>
+    <col customWidth="1" min="7" max="7" width="17.29"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1820,22 +2758,25 @@
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1850,16 +2791,19 @@
         <v>276473.0</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F106" si="1">E2*1000</f>
+        <v>56.0</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G106" si="1">E2*1000</f>
         <v>276473000</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -1874,16 +2818,19 @@
         <v>285949.0</v>
       </c>
       <c r="F3" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="G3" s="1">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1898,16 +2845,19 @@
         <v>307680.0</v>
       </c>
       <c r="F4" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="G4" s="1">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -1922,16 +2872,19 @@
         <v>276473.0</v>
       </c>
       <c r="F5" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -1946,16 +2899,19 @@
         <v>285949.0</v>
       </c>
       <c r="F6" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -1970,16 +2926,19 @@
         <v>307680.0</v>
       </c>
       <c r="F7" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -1994,16 +2953,19 @@
         <v>276473.0</v>
       </c>
       <c r="F8" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -2018,16 +2980,19 @@
         <v>285949.0</v>
       </c>
       <c r="F9" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -2042,16 +3007,19 @@
         <v>307680.0</v>
       </c>
       <c r="F10" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -2066,16 +3034,19 @@
         <v>276473.0</v>
       </c>
       <c r="F11" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
@@ -2090,16 +3061,19 @@
         <v>285949.0</v>
       </c>
       <c r="F12" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
@@ -2114,16 +3088,19 @@
         <v>307680.0</v>
       </c>
       <c r="F13" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -2138,16 +3115,19 @@
         <v>276473.0</v>
       </c>
       <c r="F14" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -2162,16 +3142,19 @@
         <v>285949.0</v>
       </c>
       <c r="F15" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
@@ -2186,16 +3169,19 @@
         <v>307680.0</v>
       </c>
       <c r="F16" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
@@ -2210,16 +3196,19 @@
         <v>276473.0</v>
       </c>
       <c r="F17" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
@@ -2234,16 +3223,19 @@
         <v>285949.0</v>
       </c>
       <c r="F18" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
@@ -2258,16 +3250,19 @@
         <v>307680.0</v>
       </c>
       <c r="F19" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -2282,16 +3277,19 @@
         <v>276473.0</v>
       </c>
       <c r="F20" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
@@ -2306,16 +3304,19 @@
         <v>285949.0</v>
       </c>
       <c r="F21" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>8</v>
@@ -2330,19 +3331,22 @@
         <v>307680.0</v>
       </c>
       <c r="F22" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
@@ -2354,19 +3358,22 @@
         <v>276473.0</v>
       </c>
       <c r="F23" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="G23" s="1">
         <f t="shared" si="1"/>
         <v>276473000</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>21</v>
@@ -2378,19 +3385,22 @@
         <v>285949.0</v>
       </c>
       <c r="F24" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="1"/>
         <v>285949000</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>22</v>
@@ -2402,16 +3412,19 @@
         <v>307680.0</v>
       </c>
       <c r="F25" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="1"/>
         <v>307680000</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
@@ -2426,16 +3439,19 @@
         <v>36253.0</v>
       </c>
       <c r="F26" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G26" s="1">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
@@ -2450,16 +3466,19 @@
         <v>38687.0</v>
       </c>
       <c r="F27" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
@@ -2474,16 +3493,19 @@
         <v>40997.0</v>
       </c>
       <c r="F28" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>8</v>
@@ -2498,16 +3520,19 @@
         <v>36253.0</v>
       </c>
       <c r="F29" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
@@ -2522,16 +3547,19 @@
         <v>38687.0</v>
       </c>
       <c r="F30" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>8</v>
@@ -2546,16 +3574,19 @@
         <v>40997.0</v>
       </c>
       <c r="F31" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>14</v>
@@ -2570,16 +3601,19 @@
         <v>36253.0</v>
       </c>
       <c r="F32" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G32" s="1">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>14</v>
@@ -2594,16 +3628,19 @@
         <v>38687.0</v>
       </c>
       <c r="F33" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="G33" s="1">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>14</v>
@@ -2618,16 +3655,19 @@
         <v>40997.0</v>
       </c>
       <c r="F34" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G34" s="1">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>9</v>
@@ -2642,16 +3682,19 @@
         <v>36253.0</v>
       </c>
       <c r="F35" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G35" s="1">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>9</v>
@@ -2666,16 +3709,19 @@
         <v>38687.0</v>
       </c>
       <c r="F36" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="G36" s="1">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>9</v>
@@ -2690,16 +3736,19 @@
         <v>40997.0</v>
       </c>
       <c r="F37" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G37" s="1">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
@@ -2714,16 +3763,19 @@
         <v>36253.0</v>
       </c>
       <c r="F38" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G38" s="1">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
@@ -2738,16 +3790,19 @@
         <v>38687.0</v>
       </c>
       <c r="F39" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="G39" s="1">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
@@ -2762,16 +3817,19 @@
         <v>40997.0</v>
       </c>
       <c r="F40" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G40" s="1">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
@@ -2786,18 +3844,21 @@
         <v>36253.0</v>
       </c>
       <c r="F41" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G41" s="1">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2810,16 +3871,19 @@
         <v>38687.0</v>
       </c>
       <c r="F42" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="G42" s="1">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
@@ -2834,18 +3898,21 @@
         <v>40997.0</v>
       </c>
       <c r="F43" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G43" s="1">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2858,18 +3925,21 @@
         <v>36253.0</v>
       </c>
       <c r="F44" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G44" s="1">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2882,18 +3952,21 @@
         <v>38687.0</v>
       </c>
       <c r="F45" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="G45" s="1">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2906,19 +3979,22 @@
         <v>40997.0</v>
       </c>
       <c r="F46" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G46" s="1">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>20</v>
@@ -2930,19 +4006,22 @@
         <v>36253.0</v>
       </c>
       <c r="F47" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G47" s="1">
         <f t="shared" si="1"/>
         <v>36253000</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>21</v>
@@ -2954,19 +4033,22 @@
         <v>38687.0</v>
       </c>
       <c r="F48" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="G48" s="1">
         <f t="shared" si="1"/>
         <v>38687000</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>22</v>
@@ -2978,16 +4060,19 @@
         <v>40997.0</v>
       </c>
       <c r="F49" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="G49" s="1">
         <f t="shared" si="1"/>
         <v>40997000</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>8</v>
@@ -3002,16 +4087,19 @@
         <v>28554.0</v>
       </c>
       <c r="F50" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G50" s="1">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>8</v>
@@ -3026,16 +4114,19 @@
         <v>26635.0</v>
       </c>
       <c r="F51" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G51" s="1">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>8</v>
@@ -3050,16 +4141,19 @@
         <v>27460.0</v>
       </c>
       <c r="F52" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G52" s="1">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>12</v>
@@ -3074,16 +4168,19 @@
         <v>28554.0</v>
       </c>
       <c r="F53" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G53" s="1">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>12</v>
@@ -3098,16 +4195,19 @@
         <v>26635.0</v>
       </c>
       <c r="F54" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G54" s="1">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>12</v>
@@ -3122,16 +4222,19 @@
         <v>27460.0</v>
       </c>
       <c r="F55" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G55" s="1">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>13</v>
@@ -3146,16 +4249,19 @@
         <v>28554.0</v>
       </c>
       <c r="F56" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G56" s="1">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>13</v>
@@ -3170,16 +4276,19 @@
         <v>26635.0</v>
       </c>
       <c r="F57" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G57" s="1">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>13</v>
@@ -3194,16 +4303,19 @@
         <v>27460.0</v>
       </c>
       <c r="F58" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G58" s="1">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>14</v>
@@ -3218,16 +4330,19 @@
         <v>28554.0</v>
       </c>
       <c r="F59" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G59" s="1">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>14</v>
@@ -3242,16 +4357,19 @@
         <v>26635.0</v>
       </c>
       <c r="F60" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G60" s="1">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>14</v>
@@ -3266,16 +4384,19 @@
         <v>27460.0</v>
       </c>
       <c r="F61" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G61" s="1">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>9</v>
@@ -3290,16 +4411,19 @@
         <v>28554.0</v>
       </c>
       <c r="F62" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G62" s="1">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>9</v>
@@ -3314,16 +4438,19 @@
         <v>26635.0</v>
       </c>
       <c r="F63" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G63" s="1">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>9</v>
@@ -3338,16 +4465,19 @@
         <v>27460.0</v>
       </c>
       <c r="F64" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G64" s="1">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>6</v>
@@ -3362,16 +4492,19 @@
         <v>28554.0</v>
       </c>
       <c r="F65" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G65" s="1">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>6</v>
@@ -3386,16 +4519,19 @@
         <v>26635.0</v>
       </c>
       <c r="F66" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G66" s="1">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
-      <c r="G66" s="1">
+      <c r="H66" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>6</v>
@@ -3410,16 +4546,19 @@
         <v>27460.0</v>
       </c>
       <c r="F67" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G67" s="1">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
-      <c r="G67" s="1">
+      <c r="H67" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>11</v>
@@ -3434,16 +4573,19 @@
         <v>28554.0</v>
       </c>
       <c r="F68" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G68" s="1">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>11</v>
@@ -3458,16 +4600,19 @@
         <v>26635.0</v>
       </c>
       <c r="F69" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G69" s="1">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>11</v>
@@ -3482,19 +4627,22 @@
         <v>27460.0</v>
       </c>
       <c r="F70" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G70" s="1">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>20</v>
@@ -3506,19 +4654,22 @@
         <v>28554.0</v>
       </c>
       <c r="F71" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G71" s="1">
         <f t="shared" si="1"/>
         <v>28554000</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>21</v>
@@ -3530,19 +4681,22 @@
         <v>26635.0</v>
       </c>
       <c r="F72" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G72" s="1">
         <f t="shared" si="1"/>
         <v>26635000</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>22</v>
@@ -3554,16 +4708,19 @@
         <v>27460.0</v>
       </c>
       <c r="F73" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G73" s="1">
         <f t="shared" si="1"/>
         <v>27460000</v>
       </c>
-      <c r="G73" s="1">
+      <c r="H73" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>9</v>
@@ -3578,16 +4735,19 @@
         <v>15905.0</v>
       </c>
       <c r="F74" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="G74" s="1">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>9</v>
@@ -3602,16 +4762,19 @@
         <v>20718.0</v>
       </c>
       <c r="F75" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G75" s="1">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>9</v>
@@ -3626,16 +4789,19 @@
         <v>23733.0</v>
       </c>
       <c r="F76" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G76" s="1">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>11</v>
@@ -3650,16 +4816,19 @@
         <v>15905.0</v>
       </c>
       <c r="F77" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="G77" s="1">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>11</v>
@@ -3674,16 +4843,19 @@
         <v>20718.0</v>
       </c>
       <c r="F78" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G78" s="1">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>11</v>
@@ -3698,16 +4870,19 @@
         <v>23733.0</v>
       </c>
       <c r="F79" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G79" s="1">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>6</v>
@@ -3722,16 +4897,19 @@
         <v>15905.0</v>
       </c>
       <c r="F80" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="G80" s="1">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H80" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>6</v>
@@ -3746,16 +4924,19 @@
         <v>20718.0</v>
       </c>
       <c r="F81" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G81" s="1">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
-      <c r="G81" s="1">
+      <c r="H81" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>6</v>
@@ -3770,19 +4951,22 @@
         <v>23733.0</v>
       </c>
       <c r="F82" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G82" s="1">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H82" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>20</v>
@@ -3794,19 +4978,22 @@
         <v>15905.0</v>
       </c>
       <c r="F83" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="G83" s="1">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
-      <c r="G83" s="1">
+      <c r="H83" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>21</v>
@@ -3818,19 +5005,22 @@
         <v>20718.0</v>
       </c>
       <c r="F84" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G84" s="1">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
-      <c r="G84" s="1">
+      <c r="H84" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>22</v>
@@ -3842,16 +5032,19 @@
         <v>23733.0</v>
       </c>
       <c r="F85" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G85" s="1">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
-      <c r="G85" s="1">
+      <c r="H85" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>6</v>
@@ -3866,16 +5059,19 @@
         <v>15905.0</v>
       </c>
       <c r="F86" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G86" s="1">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
-      <c r="G86" s="1">
+      <c r="H86" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>6</v>
@@ -3890,16 +5086,19 @@
         <v>20718.0</v>
       </c>
       <c r="F87" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G87" s="1">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>6</v>
@@ -3914,16 +5113,19 @@
         <v>23733.0</v>
       </c>
       <c r="F88" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G88" s="1">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
-      <c r="G88" s="1">
+      <c r="H88" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>12</v>
@@ -3938,16 +5140,19 @@
         <v>15905.0</v>
       </c>
       <c r="F89" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G89" s="1">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>12</v>
@@ -3962,16 +5167,19 @@
         <v>20718.0</v>
       </c>
       <c r="F90" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G90" s="1">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
-      <c r="G90" s="1">
+      <c r="H90" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>12</v>
@@ -3986,16 +5194,19 @@
         <v>23733.0</v>
       </c>
       <c r="F91" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G91" s="1">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
-      <c r="G91" s="1">
+      <c r="H91" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>9</v>
@@ -4010,16 +5221,19 @@
         <v>15905.0</v>
       </c>
       <c r="F92" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G92" s="1">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
-      <c r="G92" s="1">
+      <c r="H92" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>9</v>
@@ -4034,16 +5248,19 @@
         <v>20718.0</v>
       </c>
       <c r="F93" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G93" s="1">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
-      <c r="G93" s="1">
+      <c r="H93" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>9</v>
@@ -4058,16 +5275,19 @@
         <v>23733.0</v>
       </c>
       <c r="F94" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G94" s="1">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
-      <c r="G94" s="1">
+      <c r="H94" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>15</v>
@@ -4082,16 +5302,19 @@
         <v>15905.0</v>
       </c>
       <c r="F95" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G95" s="1">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
-      <c r="G95" s="1">
+      <c r="H95" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>15</v>
@@ -4106,16 +5329,19 @@
         <v>20718.0</v>
       </c>
       <c r="F96" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G96" s="1">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
-      <c r="G96" s="1">
+      <c r="H96" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>15</v>
@@ -4130,19 +5356,22 @@
         <v>23733.0</v>
       </c>
       <c r="F97" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G97" s="1">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
-      <c r="G97" s="1">
+      <c r="H97" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>20</v>
@@ -4154,19 +5383,22 @@
         <v>15905.0</v>
       </c>
       <c r="F98" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G98" s="1">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
-      <c r="G98" s="1">
+      <c r="H98" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>21</v>
@@ -4178,19 +5410,22 @@
         <v>20718.0</v>
       </c>
       <c r="F99" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G99" s="1">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
-      <c r="G99" s="1">
+      <c r="H99" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>22</v>
@@ -4202,16 +5437,19 @@
         <v>23733.0</v>
       </c>
       <c r="F100" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G100" s="1">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
-      <c r="G100" s="1">
+      <c r="H100" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>10</v>
@@ -4226,16 +5464,19 @@
         <v>15905.0</v>
       </c>
       <c r="F101" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G101" s="1">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
-      <c r="G101" s="1">
+      <c r="H101" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>10</v>
@@ -4250,16 +5491,19 @@
         <v>20718.0</v>
       </c>
       <c r="F102" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G102" s="1">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
-      <c r="G102" s="1">
+      <c r="H102" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
@@ -4274,19 +5518,22 @@
         <v>23733.0</v>
       </c>
       <c r="F103" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G103" s="1">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
-      <c r="G103" s="1">
+      <c r="H103" s="1">
         <v>2020.0</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>20</v>
@@ -4298,19 +5545,22 @@
         <v>15905.0</v>
       </c>
       <c r="F104" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G104" s="1">
         <f t="shared" si="1"/>
         <v>15905000</v>
       </c>
-      <c r="G104" s="1">
+      <c r="H104" s="1">
         <v>2018.0</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>21</v>
@@ -4322,19 +5572,22 @@
         <v>20718.0</v>
       </c>
       <c r="F105" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G105" s="1">
         <f t="shared" si="1"/>
         <v>20718000</v>
       </c>
-      <c r="G105" s="1">
+      <c r="H105" s="1">
         <v>2019.0</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>22</v>
@@ -4346,369 +5599,910 @@
         <v>23733.0</v>
       </c>
       <c r="F106" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G106" s="1">
         <f t="shared" si="1"/>
         <v>23733000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="H106" s="1">
         <v>2020.0</v>
       </c>
     </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4">
-        <f t="shared" ref="C2:C19" si="1">E2*D2</f>
-        <v>154824.88</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.56</v>
-      </c>
-      <c r="E2" s="1">
-        <v>276473.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4">
-        <f t="shared" si="1"/>
-        <v>157271.95</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.55</v>
-      </c>
-      <c r="E3" s="1">
-        <v>285949.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4">
-        <f t="shared" si="1"/>
-        <v>172300.8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.56</v>
-      </c>
-      <c r="E4" s="1">
-        <v>307680.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" si="1"/>
-        <v>35941.49</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>276473.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>40032.86</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.14</v>
-      </c>
-      <c r="E6" s="1">
-        <v>285949.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>39998.4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="E7" s="1">
-        <v>307680.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>27647.3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>276473.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>25735.41</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="E9" s="1">
-        <v>285949.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>27691.2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="1">
-        <v>307680.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>16588.38</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E11" s="1">
-        <v>276473.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" si="1"/>
-        <v>20016.43</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.07</v>
-      </c>
-      <c r="E12" s="1">
-        <v>285949.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="1"/>
-        <v>24614.4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="E13" s="1">
-        <v>307680.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="1"/>
-        <v>11058.92</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="E14" s="1">
-        <v>276473.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="1"/>
-        <v>14297.45</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="E15" s="1">
-        <v>285949.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="1"/>
-        <v>15384</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="E16" s="1">
-        <v>307680.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="1"/>
-        <v>27647.3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>276473.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="1"/>
-        <v>28594.9</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>285949.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="1"/>
-        <v>30768</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>307680.0</v>
-      </c>
-    </row>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
